--- a/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2023-07-28.xlsx
+++ b/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2023-07-28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180" firstSheet="2"/>
+    <workbookView windowWidth="18345" windowHeight="12180" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="37">
   <si>
     <t>Secteur</t>
   </si>
@@ -139,16 +139,13 @@
     <t>Promenade en mer</t>
   </si>
   <si>
-    <t>20 baigneurs</t>
+    <t>Autre motonautiques :  baigneurs</t>
   </si>
   <si>
-    <t>1 foil electrique</t>
+    <t>Autre : foil electrique</t>
   </si>
   <si>
-    <t>(pas réussi à lire le commentaire)</t>
-  </si>
-  <si>
-    <t>1 wake</t>
+    <t>Autre : wake</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1549,7 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
@@ -1690,7 +1687,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q2"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1699,7 +1696,7 @@
     <col min="14" max="14" width="27.2666666666667" customWidth="1"/>
     <col min="15" max="15" width="41.4285714285714" customWidth="1"/>
     <col min="16" max="16" width="48.9333333333333" customWidth="1"/>
-    <col min="17" max="17" width="24.9238095238095" customWidth="1"/>
+    <col min="17" max="17" width="64.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" spans="1:17">
@@ -1815,25 +1812,27 @@
       <c r="J3" s="11">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="11">
+        <v>20</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11"/>
     </row>
     <row r="4" ht="26.25" spans="1:17">
       <c r="A4" s="10">
@@ -2338,8 +2337,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q2"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -2463,26 +2462,26 @@
       <c r="J3" s="11">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="11">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" ht="26.25" spans="1:17">
@@ -2672,8 +2671,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -2950,8 +2949,8 @@
       <c r="J6" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>37</v>
+      <c r="K6" s="11">
+        <v>1</v>
       </c>
       <c r="L6" s="11">
         <v>0</v>
@@ -2968,7 +2967,9 @@
       <c r="P6" s="11">
         <v>0</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
